--- a/Stock Analysis Roadmap.xlsx
+++ b/Stock Analysis Roadmap.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\repos_ivar\stockanalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2DD82E4-10E1-43AD-B44A-1F543787B7F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{366561C1-C1CB-4732-B701-F417E89681D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1050" yWindow="-20820" windowWidth="28800" windowHeight="15435" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Title:</t>
   </si>
@@ -106,13 +107,28 @@
   </si>
   <si>
     <t>https://dribbble.com/tags/stock_dashboard</t>
+  </si>
+  <si>
+    <t>Database info</t>
+  </si>
+  <si>
+    <t>Number of rows in prices table:</t>
+  </si>
+  <si>
+    <t>Last date in prices table:</t>
+  </si>
+  <si>
+    <t>Number of tickers:</t>
+  </si>
+  <si>
+    <t>Number of rows for single ticker:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,6 +140,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -150,9 +174,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -436,7 +461,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
@@ -561,4 +586,47 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6AA2045-5AB2-45D3-A778-44005DC98422}">
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>